--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sfrp1</t>
+  </si>
+  <si>
+    <t>Fzd6</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sfrp1</t>
-  </si>
-  <si>
-    <t>Fzd6</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,14 +519,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3669776666666666</v>
+        <v>17.23456</v>
       </c>
       <c r="H2">
-        <v>1.100933</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I2">
-        <v>0.0181959334720815</v>
+        <v>0.8703823568377641</v>
       </c>
       <c r="J2">
-        <v>0.0181959334720815</v>
+        <v>0.870382356837764</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N2">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O2">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P2">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q2">
-        <v>2.282639374669889</v>
+        <v>211.6578956232534</v>
       </c>
       <c r="R2">
-        <v>20.543754372029</v>
+        <v>1904.92106060928</v>
       </c>
       <c r="S2">
-        <v>0.01679789578296692</v>
+        <v>0.8351772202871131</v>
       </c>
       <c r="T2">
-        <v>0.01679789578296692</v>
+        <v>0.8351772202871129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3669776666666666</v>
+        <v>17.23456</v>
       </c>
       <c r="H3">
-        <v>1.100933</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I3">
-        <v>0.0181959334720815</v>
+        <v>0.8703823568377641</v>
       </c>
       <c r="J3">
-        <v>0.0181959334720815</v>
+        <v>0.870382356837764</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N3">
         <v>0.27506</v>
       </c>
       <c r="O3">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P3">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q3">
-        <v>0.03364695899777778</v>
+        <v>1.580179357866667</v>
       </c>
       <c r="R3">
-        <v>0.30282263098</v>
+        <v>14.2216142208</v>
       </c>
       <c r="S3">
-        <v>0.0002476072729360371</v>
+        <v>0.006235202328606958</v>
       </c>
       <c r="T3">
-        <v>0.0002476072729360371</v>
+        <v>0.006235202328606958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3669776666666666</v>
+        <v>17.23456</v>
       </c>
       <c r="H4">
-        <v>1.100933</v>
+        <v>51.70368000000001</v>
       </c>
       <c r="I4">
-        <v>0.0181959334720815</v>
+        <v>0.8703823568377641</v>
       </c>
       <c r="J4">
-        <v>0.0181959334720815</v>
+        <v>0.870382356837764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N4">
         <v>1.277981</v>
       </c>
       <c r="O4">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P4">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q4">
-        <v>0.1563301618081111</v>
+        <v>7.341813407786667</v>
       </c>
       <c r="R4">
-        <v>1.406971456273</v>
+        <v>66.07632067007999</v>
       </c>
       <c r="S4">
-        <v>0.001150430416178541</v>
+        <v>0.02896993422204409</v>
       </c>
       <c r="T4">
-        <v>0.001150430416178541</v>
+        <v>0.02896993422204409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.23456</v>
+        <v>2.566576666666667</v>
       </c>
       <c r="H5">
-        <v>51.70368000000001</v>
+        <v>7.69973</v>
       </c>
       <c r="I5">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="J5">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N5">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O5">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P5">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q5">
-        <v>107.2007613390934</v>
+        <v>31.52016739750889</v>
       </c>
       <c r="R5">
-        <v>964.8068520518402</v>
+        <v>283.68150657758</v>
       </c>
       <c r="S5">
-        <v>0.7888881777872687</v>
+        <v>0.124374881988309</v>
       </c>
       <c r="T5">
-        <v>0.7888881777872687</v>
+        <v>0.124374881988309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.23456</v>
+        <v>2.566576666666667</v>
       </c>
       <c r="H6">
-        <v>51.70368000000001</v>
+        <v>7.69973</v>
       </c>
       <c r="I6">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="J6">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N6">
         <v>0.27506</v>
       </c>
       <c r="O6">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P6">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q6">
-        <v>1.580179357866667</v>
+        <v>0.2353208593111111</v>
       </c>
       <c r="R6">
-        <v>14.2216142208</v>
+        <v>2.1178877338</v>
       </c>
       <c r="S6">
-        <v>0.01162850709857686</v>
+        <v>0.0009285484983978867</v>
       </c>
       <c r="T6">
-        <v>0.01162850709857686</v>
+        <v>0.0009285484983978866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.23456</v>
+        <v>2.566576666666667</v>
       </c>
       <c r="H7">
-        <v>51.70368000000001</v>
+        <v>7.69973</v>
       </c>
       <c r="I7">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="J7">
-        <v>0.8545449373774706</v>
+        <v>0.129617643162236</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N7">
         <v>1.277981</v>
       </c>
       <c r="O7">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P7">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q7">
-        <v>7.341813407786668</v>
+        <v>1.093345405014444</v>
       </c>
       <c r="R7">
-        <v>66.07632067008001</v>
+        <v>9.840108645129998</v>
       </c>
       <c r="S7">
-        <v>0.05402825249162494</v>
+        <v>0.004314212675529084</v>
       </c>
       <c r="T7">
-        <v>0.05402825249162495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.566576666666667</v>
-      </c>
-      <c r="H8">
-        <v>7.69973</v>
-      </c>
-      <c r="I8">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="J8">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>6.220104333333334</v>
-      </c>
-      <c r="N8">
-        <v>18.660313</v>
-      </c>
-      <c r="O8">
-        <v>0.9231675752574263</v>
-      </c>
-      <c r="P8">
-        <v>0.9231675752574263</v>
-      </c>
-      <c r="Q8">
-        <v>15.96437464616556</v>
-      </c>
-      <c r="R8">
-        <v>143.67937181549</v>
-      </c>
-      <c r="S8">
-        <v>0.1174815016871907</v>
-      </c>
-      <c r="T8">
-        <v>0.1174815016871907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.566576666666667</v>
-      </c>
-      <c r="H9">
-        <v>7.69973</v>
-      </c>
-      <c r="I9">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="J9">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.09168666666666668</v>
-      </c>
-      <c r="N9">
-        <v>0.27506</v>
-      </c>
-      <c r="O9">
-        <v>0.01360783569119702</v>
-      </c>
-      <c r="P9">
-        <v>0.01360783569119702</v>
-      </c>
-      <c r="Q9">
-        <v>0.2353208593111112</v>
-      </c>
-      <c r="R9">
-        <v>2.1178877338</v>
-      </c>
-      <c r="S9">
-        <v>0.001731721319684116</v>
-      </c>
-      <c r="T9">
-        <v>0.001731721319684116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.566576666666667</v>
-      </c>
-      <c r="H10">
-        <v>7.69973</v>
-      </c>
-      <c r="I10">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="J10">
-        <v>0.1272591291504479</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4259936666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.277981</v>
-      </c>
-      <c r="O10">
-        <v>0.06322458905137661</v>
-      </c>
-      <c r="P10">
-        <v>0.06322458905137662</v>
-      </c>
-      <c r="Q10">
-        <v>1.093345405014444</v>
-      </c>
-      <c r="R10">
-        <v>9.84010864513</v>
-      </c>
-      <c r="S10">
-        <v>0.008045906143573133</v>
-      </c>
-      <c r="T10">
-        <v>0.008045906143573133</v>
+        <v>0.004314212675529083</v>
       </c>
     </row>
   </sheetData>
